--- a/data/trans_dic/P16A09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16A09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,33%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0,87; 7,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>0,0; 5,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>0,93; 8,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>0,0; 2,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>0,71; 6,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>3,02; 13,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>1,76; 10,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>1,94; 6,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>0,89; 5,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>2,17; 8,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>1,69; 7,02</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,15; 4,02</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,08%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,81; 4,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,86; 3,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,19; 1,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,82; 4,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>2,48; 5,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>3,4; 7,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,51; 6,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,5; 9,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>2,59; 4,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>2,42; 4,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,53; 3,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,0; 6,43</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,31%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>1,75; 3,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,57; 3,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,9; 2,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,11; 2,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>3,28; 6,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,02; 8,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,77; 5,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>3,88; 6,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,87; 4,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,47; 5,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,07; 3,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,67; 4,05</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,81%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,51; 4,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,0; 3,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,95; 2,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,98; 2,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>4,41; 8,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>3,33; 6,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,61; 5,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,31; 5,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>3,33; 5,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>2,48; 4,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,02; 3,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,05; 3,61</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,71%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,36; 4,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>1,4; 3,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0,41; 1,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,27; 2,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,32; 7,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,0; 8,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,49; 5,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,73; 9,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,68; 5,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,48; 5,54</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,68; 3,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>3,86; 5,95</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,86%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,4; 3,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,65; 2,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,97; 1,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,56; 2,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,35; 5,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,04; 6,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,11; 4,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,77; 6,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,54; 4,5</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,55; 4,45</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,23; 2,98</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>3,46; 4,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>4,41%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,12</t>
+          <t>1,83; 4,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,24</t>
+          <t>0,94; 3,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,3</t>
+          <t>0,62; 2,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,31</t>
+          <t>1,51; 3,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,28</t>
+          <t>2,59; 5,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 13,76</t>
+          <t>3,82; 7,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 10,95</t>
+          <t>2,54; 5,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 6,87</t>
+          <t>5,05; 7,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,15</t>
+          <t>2,48; 4,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 8,15</t>
+          <t>2,64; 4,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 7,02</t>
+          <t>1,89; 3,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,02</t>
+          <t>3,53; 5,43</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>2,88%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,76</t>
+          <t>1,75; 3,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,07</t>
+          <t>1,57; 3,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,79</t>
+          <t>0,9; 2,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,72</t>
+          <t>0,64; 2,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,54</t>
+          <t>3,28; 6,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 7,26</t>
+          <t>5,02; 8,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,18</t>
+          <t>2,77; 5,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,5; 9,4</t>
+          <t>3,81; 5,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,69</t>
+          <t>2,87; 4,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,65</t>
+          <t>3,47; 5,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,39</t>
+          <t>2,07; 3,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 6,43</t>
+          <t>1,94; 3,64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>2,47%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,87</t>
+          <t>1,51; 4,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,48</t>
+          <t>1,0; 3,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,59</t>
+          <t>0,95; 2,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,82</t>
+          <t>0,94; 2,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,15</t>
+          <t>4,41; 8,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 8,12</t>
+          <t>3,33; 6,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,36</t>
+          <t>2,61; 5,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,0</t>
+          <t>1,54; 4,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 4,55</t>
+          <t>3,33; 5,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 5,32</t>
+          <t>2,48; 4,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,49</t>
+          <t>2,02; 3,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,05</t>
+          <t>1,58; 3,26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>4,59%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4,41%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>4,3%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>3,32%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>2,78%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>2,81%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,07</t>
+          <t>2,36; 4,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,36</t>
+          <t>1,4; 3,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,81</t>
+          <t>0,41; 1,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,95</t>
+          <t>1,2; 2,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 8,02</t>
+          <t>4,32; 7,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 6,38</t>
+          <t>5,0; 8,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,5</t>
+          <t>2,49; 5,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,06</t>
+          <t>4,99; 8,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 5,37</t>
+          <t>3,68; 5,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,46</t>
+          <t>3,48; 5,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,79</t>
+          <t>1,68; 3,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 3,61</t>
+          <t>3,5; 5,33</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>3,47%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 4,59</t>
+          <t>2,4; 3,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,56</t>
+          <t>1,65; 2,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,72</t>
+          <t>0,97; 1,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,9</t>
+          <t>1,29; 2,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,35</t>
+          <t>4,35; 5,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,0; 8,05</t>
+          <t>5,04; 6,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,03</t>
+          <t>3,11; 4,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,73; 9,22</t>
+          <t>4,16; 5,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,68; 5,63</t>
+          <t>3,54; 4,5</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,48; 5,54</t>
+          <t>3,55; 4,45</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,11</t>
+          <t>2,23; 2,98</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,86; 5,95</t>
+          <t>2,99; 3,97</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,91%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,09%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,33%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,95%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>5,08%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>5,83%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>3,8%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,56%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>4,01%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>3,99%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>2,59%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>3,86%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,4; 3,52</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 2,66</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 1,77</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 2,47</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>4,35; 5,95</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>5,04; 6,68</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>3,11; 4,48</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,77; 6,39</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>3,54; 4,5</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>3,55; 4,45</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>2,23; 2,98</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>3,46; 4,38</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16A09-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,4</t>
+          <t>1,92; 4,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,07</t>
+          <t>0,91; 3,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,37</t>
+          <t>0,59; 2,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,85</t>
+          <t>1,46; 3,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,4</t>
+          <t>2,54; 5,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 7,54</t>
+          <t>3,71; 7,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,89</t>
+          <t>2,63; 5,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,05; 7,92</t>
+          <t>5,0; 8,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,39</t>
+          <t>2,6; 4,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,68</t>
+          <t>2,67; 4,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,6</t>
+          <t>1,79; 3,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,43</t>
+          <t>3,5; 5,41</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,87</t>
+          <t>1,74; 3,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,48</t>
+          <t>1,58; 3,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,59</t>
+          <t>0,9; 2,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,26</t>
+          <t>0,64; 2,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,15</t>
+          <t>3,34; 6,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,02; 8,12</t>
+          <t>5,02; 8,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,36</t>
+          <t>2,69; 5,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 5,89</t>
+          <t>3,83; 5,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 4,55</t>
+          <t>2,89; 4,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,47; 5,32</t>
+          <t>3,55; 5,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,49</t>
+          <t>1,99; 3,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 3,64</t>
+          <t>1,93; 3,6</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,07</t>
+          <t>1,56; 4,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,36</t>
+          <t>0,96; 3,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,81</t>
+          <t>1,04; 3,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,79</t>
+          <t>0,93; 2,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 8,02</t>
+          <t>4,48; 8,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 6,38</t>
+          <t>3,34; 6,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,5</t>
+          <t>2,48; 5,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,51</t>
+          <t>1,45; 4,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 5,37</t>
+          <t>3,38; 5,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,46</t>
+          <t>2,48; 4,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,79</t>
+          <t>2,01; 3,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,26</t>
+          <t>1,54; 3,29</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 4,59</t>
+          <t>2,49; 4,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,56</t>
+          <t>1,25; 3,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,72</t>
+          <t>0,37; 1,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,78</t>
+          <t>1,11; 2,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,35</t>
+          <t>4,32; 7,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 8,05</t>
+          <t>4,8; 7,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,03</t>
+          <t>2,52; 4,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,99; 8,25</t>
+          <t>4,93; 8,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,68; 5,63</t>
+          <t>3,69; 5,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 5,54</t>
+          <t>3,5; 5,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,11</t>
+          <t>1,65; 3,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 5,33</t>
+          <t>3,55; 5,4</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,52</t>
+          <t>2,35; 3,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,66</t>
+          <t>1,62; 2,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,77</t>
+          <t>1,01; 1,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,26</t>
+          <t>1,32; 2,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,35; 5,95</t>
+          <t>4,38; 5,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,04; 6,68</t>
+          <t>5,11; 6,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,11; 4,48</t>
+          <t>3,11; 4,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,16; 5,84</t>
+          <t>4,18; 5,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 4,5</t>
+          <t>3,54; 4,48</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 4,45</t>
+          <t>3,52; 4,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 2,98</t>
+          <t>2,23; 3,01</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,97</t>
+          <t>2,97; 3,92</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20352</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12434</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8756</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15391</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>25846</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>37050</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>26710</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>42454</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>46198</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>49484</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>35465</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>57845</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13284; 31008</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6381; 21181</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3979; 15901</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9280; 24652</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17462; 36151</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>25719; 49907</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17724; 39296</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>33759; 55069</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>35930; 61383</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>37187; 63648</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24093; 48707</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>45894; 70918</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>25913</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24239</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15135</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16617</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>45285</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>65423</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>40617</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>45438</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>71198</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>89662</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>55753</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>62055</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16721; 37209</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16061; 35859</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9242; 26082</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7617; 26504</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>32311; 59988</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>51567; 83276</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28097; 54233</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>36653; 56130</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>55845; 89801</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>72537; 110119</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>41184; 71814</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>41547; 77499</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17059</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14047</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13250</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11619</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>41546</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>36820</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29733</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28759</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>58606</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>50868</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>42984</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>40378</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10604; 27636</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7266; 25365</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7925; 23325</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6536; 20052</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>30646; 56008</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>25893; 49580</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19475; 42050</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13484; 41157</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>46110; 74876</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>37980; 68941</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>30996; 57078</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25128; 53798</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>31969</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>20609</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8054</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16982</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>58855</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>67225</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>37498</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>69682</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>90824</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>87834</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>45551</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>86664</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>23458; 44767</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11753; 32035</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3470; 15882</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10290; 24966</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>44911; 76426</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>50314; 83341</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>26273; 51448</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>53768; 89959</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>73171; 110930</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>69715; 108033</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>32650; 60888</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>71695; 109028</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>95292</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>71329</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>45195</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>60609</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>171532</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>206519</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>134558</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>186333</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>266824</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>277847</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>179753</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>246942</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>77076; 115878</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>55242; 91401</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>34225; 60827</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>45805; 79269</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>147850; 199364</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>181182; 235216</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>110223; 158235</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>152825; 215091</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>235279; 298426</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>245081; 315223</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>154896; 209063</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>211225; 278841</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>